--- a/WebAPP/wwwroot/Form/formNhapCauHoiTrinhtuthaotac.xlsx
+++ b/WebAPP/wwwroot/Form/formNhapCauHoiTrinhtuthaotac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smtng\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DC3F0D-F9FB-4AA7-9FC6-F9EDD2CC6CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F1D95D-30FF-4DB5-B369-93D43946B9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10425" yWindow="105" windowWidth="17340" windowHeight="11475" xr2:uid="{62B9673F-6EC5-47DD-9605-FCC591F5EB62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62B9673F-6EC5-47DD-9605-FCC591F5EB62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">Danh sách trình tự </t>
+  </si>
+  <si>
+    <t>Điểm số</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,12 +82,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -399,24 +411,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34701C78-0367-40EF-986A-4944EBB190BE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="107.7109375" style="1" customWidth="1"/>
-    <col min="2" max="6" width="27.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="164.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="4" customWidth="1"/>
+    <col min="3" max="6" width="27.42578125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
